--- a/php_action/subidas/ordenes salida masiva.xlsx
+++ b/php_action/subidas/ordenes salida masiva.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t xml:space="preserve">N_GUIA</t>
   </si>
@@ -40,10 +40,28 @@
     <t xml:space="preserve">STOCK SALIDA</t>
   </si>
   <si>
-    <t xml:space="preserve">QWERT123</t>
+    <t xml:space="preserve">11111-RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luisjuaangric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222-YH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narickyellu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33333-LO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juarickyluel </t>
   </si>
   <si>
     <t xml:space="preserve">NORBELYS AIZA NAGUANAGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444-2LP</t>
   </si>
 </sst>
 </file>
@@ -157,16 +175,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
   </cols>
@@ -198,7 +218,7 @@
       <c r="B2" s="2" t="n">
         <v>44712</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -208,7 +228,7 @@
         <v>737186383947</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,7 +238,7 @@
       <c r="B3" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -228,7 +248,7 @@
         <v>737186383930</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,7 +258,7 @@
       <c r="B4" s="2" t="n">
         <v>44714</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -248,7 +268,7 @@
         <v>737186382230</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,7 +278,7 @@
       <c r="B5" s="2" t="n">
         <v>44715</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -268,7 +288,7 @@
         <v>658325877205</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,7 +298,7 @@
       <c r="B6" s="2" t="n">
         <v>44716</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -293,102 +313,142 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44717</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>123545880</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>788115379937</v>
+        <v>737186383947</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44718</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>123545881</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>658325877182</v>
+        <v>737186383930</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44719</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>123545882</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>737186383862</v>
+        <v>737186382230</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44720</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>123545883</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>658325877168</v>
+        <v>737186382230</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44720</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>123545883</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>658325877151</v>
+        <v>658325877205</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>123545883</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>737186383947</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>123545883</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>737186383930</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
